--- a/Manual_Testing_Engeto_Pohlidalova.xlsx
+++ b/Manual_Testing_Engeto_Pohlidalova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pohli\Desktop\ENGETO PYTHON\Manual-test-engeto-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD5563-654B-4B3A-BAC3-3566A72B8421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F6899-3AEE-486F-B019-214F77F65E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{81C372EC-3577-45B6-BFE5-DD171F8BCF76}"/>
+    <workbookView xWindow="23064" yWindow="0" windowWidth="24300" windowHeight="16656" activeTab="1" xr2:uid="{81C372EC-3577-45B6-BFE5-DD171F8BCF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Očekávaný výsledek</t>
   </si>
   <si>
-    <t>Poznámky</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -255,18 +252,9 @@
     <t>HTML tagy se zobrazí jako text, ne jako formátování</t>
   </si>
   <si>
-    <t>Položka</t>
-  </si>
-  <si>
-    <t>Hodnota</t>
-  </si>
-  <si>
     <t>Aplikace</t>
   </si>
   <si>
-    <t>Formulář pro křestní jméno a město</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -283,12 +271,6 @@
   </si>
   <si>
     <t>Cíl testování</t>
-  </si>
-  <si>
-    <t>Identifikovat minimálně 21 chyb v aplikaci</t>
-  </si>
-  <si>
-    <t>Testování funkčnosti, UI/UX, validace, bezpečnosti</t>
   </si>
   <si>
     <t>Jana Pohlídalová</t>
@@ -646,10 +628,24 @@
     <t>Počítání není ovlivněno. Avšak výstup je zobrazen bez jekékoliv korekce uživateli.</t>
   </si>
   <si>
-    <t>Bug 15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplikace neočišťuje uživatelem zadané vstupní parametry o case sensitivity (vypíše jAn). </t>
+  </si>
+  <si>
+    <t>Prostředí testu</t>
+  </si>
+  <si>
+    <t>Laptop ASUS
+Windows 11 Home, version 24H2
+Prohížeč Chrome Version 137.0.7151.104</t>
+  </si>
+  <si>
+    <t>Aplikace pro počítání souhlásek a samohlásek vstupních hodnot First Name a City</t>
+  </si>
+  <si>
+    <t>Identifikovat chyby v aplikaci</t>
+  </si>
+  <si>
+    <t>Bug015</t>
   </si>
 </sst>
 </file>
@@ -695,7 +691,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -718,21 +714,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -746,25 +800,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,6 +840,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1108,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9B2A95-AF77-422A-92B7-01370D4B2B4A}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,73 +1192,65 @@
     <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="5">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{C24CAF3D-A3EF-4CE6-A6D9-B54F744D263A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C24CAF3D-A3EF-4CE6-A6D9-B54F744D263A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1196,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4D7D37-2738-411B-AED0-A3A6ED812E9D}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,705 +1277,712 @@
     <col min="10" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="I23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1922,6 +1993,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Manual_Testing_Engeto_Pohlidalova.xlsx
+++ b/Manual_Testing_Engeto_Pohlidalova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pohli\Desktop\ENGETO PYTHON\Manual-test-engeto-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7F6899-3AEE-486F-B019-214F77F65E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8C7346-86A4-4CE3-937A-19F1E9AB3DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23064" yWindow="0" windowWidth="24300" windowHeight="16656" activeTab="1" xr2:uid="{81C372EC-3577-45B6-BFE5-DD171F8BCF76}"/>
+    <workbookView xWindow="23760" yWindow="768" windowWidth="20436" windowHeight="13680" activeTab="1" xr2:uid="{81C372EC-3577-45B6-BFE5-DD171F8BCF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -840,13 +840,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1261,7 +1254,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,10 +1987,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
